--- a/report/ethics/ethics-checklist-ug.xlsx
+++ b/report/ethics/ethics-checklist-ug.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\matbon\thesis\report\ethics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC517C6-109C-48D6-963C-2336DD39DE76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FD0C4F-C4BD-44DF-B153-15B022D773ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1035" windowWidth="16560" windowHeight="15165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Section 1: HUMANS</t>
   </si>
@@ -129,6 +123,9 @@
   </si>
   <si>
     <t>Are there any other ethics issues that should be taken into consideration?</t>
+  </si>
+  <si>
+    <t>Yes/no</t>
   </si>
 </sst>
 </file>
@@ -176,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -184,10 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -567,7 +561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -578,7 +572,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,173 +584,170 @@
     <col min="5" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="22" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="23" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/report/ethics/ethics-checklist-ug.xlsx
+++ b/report/ethics/ethics-checklist-ug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\matbon\thesis\report\ethics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FD0C4F-C4BD-44DF-B153-15B022D773ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08435E49-F9C2-4CC5-9815-D527F62F99A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Section 1: HUMANS</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Yes/no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -571,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +608,9 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -609,21 +621,33 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -639,6 +663,9 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -649,105 +676,153 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/report/ethics/ethics-checklist-ug.xlsx
+++ b/report/ethics/ethics-checklist-ug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\matbon\thesis\report\ethics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08435E49-F9C2-4CC5-9815-D527F62F99A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181E7C81-0489-4751-8E7C-452A6BF1C016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Section 1: HUMANS</t>
   </si>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +652,9 @@
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
